--- a/tut05/output/0501CS34.xlsx
+++ b/tut05/output/0501CS34.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1477,6 +1477,518 @@
         </is>
       </c>
     </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>CH101</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Chemistry - I</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>3-1-0</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>CH110</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Chemistry Laboratory</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>0-0-3</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>EE101</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Electrical Sciences</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>3-1-0</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>HS101</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>English : Language Through Literature</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>3-0-0</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>MA101</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Mathematics - I</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>3-1-0</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>ME110</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Workshop - I</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>0-0-3</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>ME111</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Engineering Drawing</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>2-0-3</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>PH101</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Physics - I</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>2-1-0</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>CH102</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Chemistry - II</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>3-0-0</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Introduction to Computing</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>3-0-0</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>CS110</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Computing Laboratory</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>0-0-3</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>EE102</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Basic Electronics Laboratory</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>0-0-4</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>MA102</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Mathematics - II</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>3-1-0</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>ME101</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Engineering Mechanics</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>3-1-0</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>PH102</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Physics - II</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>2-1-0</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>PH110</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Physics Laboratory</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>0-0-3</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
